--- a/mapping/OBI_VIMMP.xlsx
+++ b/mapping/OBI_VIMMP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="276">
   <si>
     <t>OBI_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>VIMMP_DESC</t>
   </si>
   <si>
+    <t>VIMMP_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -76,30 +79,246 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000835</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CLO_0000031</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000165</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000034</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000055</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000065</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000301</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000305</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000311</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000312</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000314</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000315</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000322</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000408</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000414</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000416</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000582</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/APOLLO_SV_00000008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000584</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000591</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000592</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000593</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000595</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000097</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0300311</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000319</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000372</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000399</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001912</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002089</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500020</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0001173</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200140</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600037</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000055</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000242</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000119</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000125</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000153</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000172</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000269</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000391</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000413</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001069</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001147</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600033</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001468</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1000036</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001898</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001627</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001873</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001911</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001943</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002138</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002139</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002473</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002474</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002475</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002476</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002562</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200080</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200147</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200126</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200137</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200153</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302908</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600021</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600048</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600063</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1000023</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1000024</t>
+  </si>
+  <si>
     <t>{'label': 'information content entity', 'prefLabel': 'information content entity', 'altLabel': 'information object', 'name': 'IAO_0000030'}</t>
   </si>
   <si>
@@ -148,30 +367,246 @@
     <t>{'label': 'manufacturer', 'prefLabel': 'manufacturer', 'altLabel': None, 'name': 'OBI_0000835'}</t>
   </si>
   <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'CLO_0000031'}</t>
+  </si>
+  <si>
     <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0000165'}</t>
   </si>
   <si>
     <t>{'label': 'Data item', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000027'}</t>
   </si>
   <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000034'}</t>
+  </si>
+  <si>
     <t>{'label': 'rule', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000055'}</t>
   </si>
   <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000065'}</t>
+  </si>
+  <si>
     <t>{'label': 'citation', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000301'}</t>
   </si>
   <si>
+    <t>{'label': 'document', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000305'}</t>
+  </si>
+  <si>
     <t>{'label': 'publication', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000311'}</t>
   </si>
   <si>
-    <t>{'label': 'publication about an investigation', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000312'}</t>
+    <t>{'label': 'publication', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000312'}</t>
+  </si>
+  <si>
+    <t>{'label': 'document', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000314'}</t>
   </si>
   <si>
     <t>{'label': 'abstract', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000315'}</t>
   </si>
   <si>
+    <t>{'label': 'institution', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000322'}</t>
+  </si>
+  <si>
+    <t>{'label': 'length', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000408'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000414'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000416'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000582'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'APOLLO_SV_00000008'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000584'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000591'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000592'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000593'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000595'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000456'}</t>
+  </si>
+  <si>
+    <t>{'label': 'participant', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000097'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observation', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0300311'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000319'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000372'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solid', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000399'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001912'}</t>
+  </si>
+  <si>
+    <t>{'label': 'physical', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002089'}</t>
+  </si>
+  <si>
+    <t>{'label': 'time', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0500020'}</t>
+  </si>
+  <si>
     <t>{'label': 'service', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001173'}</t>
   </si>
   <si>
+    <t>{'label': 'mathematical', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200140'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600037'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000018'}</t>
+  </si>
+  <si>
+    <t>{'label': 'physical', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000044'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000055'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000242'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600010'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000119'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000125'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000153'}</t>
+  </si>
+  <si>
+    <t>{'label': 'parameter', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000172'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000269'}</t>
+  </si>
+  <si>
+    <t>{'label': 'energy', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000391'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000413'}</t>
+  </si>
+  <si>
+    <t>{'label': 'array', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001069'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001147'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600033'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001468'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001483'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1000036'}</t>
+  </si>
+  <si>
+    <t>{'label': 'comment', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001898'}</t>
+  </si>
+  <si>
+    <t>{'label': 'country', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001627'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001873'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001911'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001943'}</t>
+  </si>
+  <si>
+    <t>{'label': 'collection', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002076'}</t>
+  </si>
+  <si>
+    <t>{'label': 'temperature', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002138'}</t>
+  </si>
+  <si>
+    <t>{'label': 'volume', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002139'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002473'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002474'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002475'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002476'}</t>
+  </si>
+  <si>
+    <t>{'label': 'country', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002562'}</t>
+  </si>
+  <si>
+    <t>{'label': 'network', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200080'}</t>
+  </si>
+  <si>
+    <t>{'label': 'network', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200147'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200085'}</t>
+  </si>
+  <si>
+    <t>{'label': 'network', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200126'}</t>
+  </si>
+  <si>
+    <t>{'label': 'network', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200137'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0200153'}</t>
+  </si>
+  <si>
+    <t>{'label': 'document', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0302908'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0302894'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600018'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600021'}</t>
+  </si>
+  <si>
+    <t>{'label': 'vector', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600048'}</t>
+  </si>
+  <si>
+    <t>{'label': 'vector', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600063'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1000023'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_1000024'}</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/iao.owl#IAO_0000030</t>
   </si>
   <si>
@@ -217,6 +652,9 @@
     <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#document</t>
   </si>
   <si>
+    <t>https://purl.vimmp.eu/semantics/viso/viso-continuum.ttl#cell</t>
+  </si>
+  <si>
     <t>https://purl.vimmp.eu/semantics/vov/vov.ttl#time</t>
   </si>
   <si>
@@ -232,15 +670,60 @@
     <t>https://purl.vimmp.eu/semantics/otras/otras.ttl#publication</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/iao.owl#IAO_0000312</t>
-  </si>
-  <si>
     <t>https://purl.vimmp.eu/semantics/otras/otras.ttl#abstract</t>
   </si>
   <si>
+    <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#institution</t>
+  </si>
+  <si>
+    <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#material</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Participant</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Observation</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/viso/viso-continuum.ttl#solid</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Physical</t>
+  </si>
+  <si>
     <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#service</t>
   </si>
   <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Mathematical</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Number</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Parameter</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/vov/vov.ttl#energy</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Array</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/vico/vico.ttl#comment</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/vico/vico.ttl#country</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Collection</t>
+  </si>
+  <si>
+    <t>http://lpis.csd.auth.gr/ontologies/paasport/paasport1.owl#Network</t>
+  </si>
+  <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Vector</t>
+  </si>
+  <si>
     <t>{'name': 'IAO_0000030'}</t>
   </si>
   <si>
@@ -286,6 +769,9 @@
     <t>{'name': 'document'}</t>
   </si>
   <si>
+    <t>{'name': 'cell'}</t>
+  </si>
+  <si>
     <t>{'name': 'time'}</t>
   </si>
   <si>
@@ -301,13 +787,61 @@
     <t>{'name': 'publication'}</t>
   </si>
   <si>
-    <t>{'name': 'IAO_0000312'}</t>
-  </si>
-  <si>
     <t>{'name': 'abstract'}</t>
   </si>
   <si>
+    <t>{'name': 'institution'}</t>
+  </si>
+  <si>
+    <t>{'name': 'material'}</t>
+  </si>
+  <si>
+    <t>{'label': 'participant', 'name': 'participant'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observation', 'name': 'observation'}</t>
+  </si>
+  <si>
+    <t>{'name': 'solid'}</t>
+  </si>
+  <si>
+    <t>{'label': 'physical', 'name': 'physical'}</t>
+  </si>
+  <si>
     <t>{'name': 'service'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mathematical', 'name': 'mathematical'}</t>
+  </si>
+  <si>
+    <t>{'label': 'number', 'name': 'number'}</t>
+  </si>
+  <si>
+    <t>{'label': 'parameter', 'name': 'parameter'}</t>
+  </si>
+  <si>
+    <t>{'name': 'energy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'array', 'name': 'array'}</t>
+  </si>
+  <si>
+    <t>{'name': 'comment'}</t>
+  </si>
+  <si>
+    <t>{'name': 'country'}</t>
+  </si>
+  <si>
+    <t>{'label': 'collection', 'name': 'collection'}</t>
+  </si>
+  <si>
+    <t>{'name': 'network'}</t>
+  </si>
+  <si>
+    <t>{'label': 'vector', 'name': 'vector'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -678,13 +1212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,413 +1231,1928 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>240</v>
+      </c>
+      <c r="F6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>242</v>
+      </c>
+      <c r="F8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>247</v>
+      </c>
+      <c r="F13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>248</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="F15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>250</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>248</v>
+      </c>
+      <c r="F17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>251</v>
+      </c>
+      <c r="F18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>252</v>
+      </c>
+      <c r="F21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="F23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" t="s">
+        <v>268</v>
+      </c>
+      <c r="F63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>251</v>
+      </c>
+      <c r="F66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+      <c r="F85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" t="s">
+        <v>273</v>
+      </c>
+      <c r="F88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+      <c r="F91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F97" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1141,21 +3190,165 @@
     <hyperlink ref="B17" r:id="rId31"/>
     <hyperlink ref="D17" r:id="rId32" location="manufacturer"/>
     <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="D18" r:id="rId34" location="time"/>
+    <hyperlink ref="D18" r:id="rId34" location="cell"/>
     <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="D19" r:id="rId36" location="IAO_0000027"/>
+    <hyperlink ref="D19" r:id="rId36" location="time"/>
     <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="D20" r:id="rId38" location="rule"/>
+    <hyperlink ref="D20" r:id="rId38" location="IAO_0000027"/>
     <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="D21" r:id="rId40" location="citation"/>
+    <hyperlink ref="D21" r:id="rId40" location="time"/>
     <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="D22" r:id="rId42" location="publication"/>
+    <hyperlink ref="D22" r:id="rId42" location="rule"/>
     <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="D23" r:id="rId44" location="IAO_0000312"/>
+    <hyperlink ref="D23" r:id="rId44" location="software"/>
     <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="D24" r:id="rId46" location="abstract"/>
+    <hyperlink ref="D24" r:id="rId46" location="citation"/>
     <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="D25" r:id="rId48" location="service"/>
+    <hyperlink ref="D25" r:id="rId48" location="document"/>
+    <hyperlink ref="B26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50" location="publication"/>
+    <hyperlink ref="B27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52" location="publication"/>
+    <hyperlink ref="B28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54" location="document"/>
+    <hyperlink ref="B29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56" location="abstract"/>
+    <hyperlink ref="B30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58" location="institution"/>
+    <hyperlink ref="B31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60" location="length"/>
+    <hyperlink ref="B32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62" location="mass"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64" location="time"/>
+    <hyperlink ref="B34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66" location="time"/>
+    <hyperlink ref="B35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68" location="software"/>
+    <hyperlink ref="B36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70" location="time"/>
+    <hyperlink ref="B37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72" location="software"/>
+    <hyperlink ref="B38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74" location="software"/>
+    <hyperlink ref="B39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76" location="software"/>
+    <hyperlink ref="B40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78" location="software"/>
+    <hyperlink ref="B41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80" location="material"/>
+    <hyperlink ref="B42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82" location="Participant"/>
+    <hyperlink ref="B43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84" location="Observation"/>
+    <hyperlink ref="B44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86" location="material"/>
+    <hyperlink ref="B45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88" location="material"/>
+    <hyperlink ref="B46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90" location="solid"/>
+    <hyperlink ref="B47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92" location="cell"/>
+    <hyperlink ref="B48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94" location="Physical"/>
+    <hyperlink ref="B49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96" location="time"/>
+    <hyperlink ref="B50" r:id="rId97"/>
+    <hyperlink ref="D50" r:id="rId98" location="service"/>
+    <hyperlink ref="B51" r:id="rId99"/>
+    <hyperlink ref="D51" r:id="rId100" location="Mathematical"/>
+    <hyperlink ref="B52" r:id="rId101"/>
+    <hyperlink ref="D52" r:id="rId102" location="cell"/>
+    <hyperlink ref="B53" r:id="rId103"/>
+    <hyperlink ref="D53" r:id="rId104" location="material"/>
+    <hyperlink ref="B54" r:id="rId105"/>
+    <hyperlink ref="D54" r:id="rId106" location="Physical"/>
+    <hyperlink ref="B55" r:id="rId107"/>
+    <hyperlink ref="D55" r:id="rId108" location="software"/>
+    <hyperlink ref="B56" r:id="rId109"/>
+    <hyperlink ref="D56" r:id="rId110" location="software"/>
+    <hyperlink ref="B57" r:id="rId111"/>
+    <hyperlink ref="D57" r:id="rId112" location="material"/>
+    <hyperlink ref="B58" r:id="rId113"/>
+    <hyperlink ref="D58" r:id="rId114" location="Number"/>
+    <hyperlink ref="B59" r:id="rId115"/>
+    <hyperlink ref="D59" r:id="rId116" location="Number"/>
+    <hyperlink ref="B60" r:id="rId117"/>
+    <hyperlink ref="D60" r:id="rId118" location="cell"/>
+    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="D61" r:id="rId120" location="Parameter"/>
+    <hyperlink ref="B62" r:id="rId121"/>
+    <hyperlink ref="D62" r:id="rId122" location="Number"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="D63" r:id="rId124" location="energy"/>
+    <hyperlink ref="B64" r:id="rId125"/>
+    <hyperlink ref="D64" r:id="rId126" location="cell"/>
+    <hyperlink ref="B65" r:id="rId127"/>
+    <hyperlink ref="D65" r:id="rId128" location="Array"/>
+    <hyperlink ref="B66" r:id="rId129"/>
+    <hyperlink ref="D66" r:id="rId130" location="cell"/>
+    <hyperlink ref="B67" r:id="rId131"/>
+    <hyperlink ref="D67" r:id="rId132" location="cell"/>
+    <hyperlink ref="B68" r:id="rId133"/>
+    <hyperlink ref="D68" r:id="rId134" location="cell"/>
+    <hyperlink ref="B69" r:id="rId135"/>
+    <hyperlink ref="D69" r:id="rId136" location="cell"/>
+    <hyperlink ref="B70" r:id="rId137"/>
+    <hyperlink ref="D70" r:id="rId138" location="cell"/>
+    <hyperlink ref="B71" r:id="rId139"/>
+    <hyperlink ref="D71" r:id="rId140" location="comment"/>
+    <hyperlink ref="B72" r:id="rId141"/>
+    <hyperlink ref="D72" r:id="rId142" location="country"/>
+    <hyperlink ref="B73" r:id="rId143"/>
+    <hyperlink ref="D73" r:id="rId144" location="Number"/>
+    <hyperlink ref="B74" r:id="rId145"/>
+    <hyperlink ref="D74" r:id="rId146" location="cell"/>
+    <hyperlink ref="B75" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148" location="software"/>
+    <hyperlink ref="B76" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150" location="Collection"/>
+    <hyperlink ref="B77" r:id="rId151"/>
+    <hyperlink ref="D77" r:id="rId152" location="temperature"/>
+    <hyperlink ref="B78" r:id="rId153"/>
+    <hyperlink ref="D78" r:id="rId154" location="volume"/>
+    <hyperlink ref="B79" r:id="rId155"/>
+    <hyperlink ref="D79" r:id="rId156" location="material"/>
+    <hyperlink ref="B80" r:id="rId157"/>
+    <hyperlink ref="D80" r:id="rId158" location="material"/>
+    <hyperlink ref="B81" r:id="rId159"/>
+    <hyperlink ref="D81" r:id="rId160" location="Number"/>
+    <hyperlink ref="B82" r:id="rId161"/>
+    <hyperlink ref="D82" r:id="rId162" location="Number"/>
+    <hyperlink ref="B83" r:id="rId163"/>
+    <hyperlink ref="D83" r:id="rId164" location="country"/>
+    <hyperlink ref="B84" r:id="rId165"/>
+    <hyperlink ref="D84" r:id="rId166" location="Network"/>
+    <hyperlink ref="B85" r:id="rId167"/>
+    <hyperlink ref="D85" r:id="rId168" location="Network"/>
+    <hyperlink ref="B86" r:id="rId169"/>
+    <hyperlink ref="D86" r:id="rId170" location="mass"/>
+    <hyperlink ref="B87" r:id="rId171"/>
+    <hyperlink ref="D87" r:id="rId172" location="Network"/>
+    <hyperlink ref="B88" r:id="rId173"/>
+    <hyperlink ref="D88" r:id="rId174" location="Network"/>
+    <hyperlink ref="B89" r:id="rId175"/>
+    <hyperlink ref="D89" r:id="rId176" location="Number"/>
+    <hyperlink ref="B90" r:id="rId177"/>
+    <hyperlink ref="D90" r:id="rId178" location="document"/>
+    <hyperlink ref="B91" r:id="rId179"/>
+    <hyperlink ref="D91" r:id="rId180" location="cell"/>
+    <hyperlink ref="B92" r:id="rId181"/>
+    <hyperlink ref="D92" r:id="rId182" location="material"/>
+    <hyperlink ref="B93" r:id="rId183"/>
+    <hyperlink ref="D93" r:id="rId184" location="cell"/>
+    <hyperlink ref="B94" r:id="rId185"/>
+    <hyperlink ref="D94" r:id="rId186" location="Vector"/>
+    <hyperlink ref="B95" r:id="rId187"/>
+    <hyperlink ref="D95" r:id="rId188" location="Vector"/>
+    <hyperlink ref="B96" r:id="rId189"/>
+    <hyperlink ref="D96" r:id="rId190" location="cell"/>
+    <hyperlink ref="B97" r:id="rId191"/>
+    <hyperlink ref="D97" r:id="rId192" location="cell"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
